--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.714293</v>
+        <v>3.050673333333334</v>
       </c>
       <c r="H2">
-        <v>8.142879000000001</v>
+        <v>9.15202</v>
       </c>
       <c r="I2">
-        <v>0.02893885961486273</v>
+        <v>0.03589373762206555</v>
       </c>
       <c r="J2">
-        <v>0.02893885961486273</v>
+        <v>0.03589373762206555</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.63852366666667</v>
+        <v>8.432170666666666</v>
       </c>
       <c r="N2">
-        <v>124.915571</v>
+        <v>25.296512</v>
       </c>
       <c r="O2">
-        <v>0.08215189730289396</v>
+        <v>0.0153412147997323</v>
       </c>
       <c r="P2">
-        <v>0.08215189730289396</v>
+        <v>0.01534121479973231</v>
       </c>
       <c r="Q2">
-        <v>113.0191533187677</v>
+        <v>25.72379819491556</v>
       </c>
       <c r="R2">
-        <v>1017.172379868909</v>
+        <v>231.51418375424</v>
       </c>
       <c r="S2">
-        <v>0.002377382223143068</v>
+        <v>0.0005506535388253402</v>
       </c>
       <c r="T2">
-        <v>0.002377382223143069</v>
+        <v>0.0005506535388253403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.714293</v>
+        <v>3.050673333333334</v>
       </c>
       <c r="H3">
-        <v>8.142879000000001</v>
+        <v>9.15202</v>
       </c>
       <c r="I3">
-        <v>0.02893885961486273</v>
+        <v>0.03589373762206555</v>
       </c>
       <c r="J3">
-        <v>0.02893885961486273</v>
+        <v>0.03589373762206555</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>211.5004576666666</v>
+        <v>211.5004576666667</v>
       </c>
       <c r="N3">
-        <v>634.5013729999999</v>
+        <v>634.5013730000001</v>
       </c>
       <c r="O3">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="P3">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="Q3">
-        <v>574.0742117414296</v>
+        <v>645.2188061914957</v>
       </c>
       <c r="R3">
-        <v>5166.667905672867</v>
+        <v>5806.96925572346</v>
       </c>
       <c r="S3">
-        <v>0.01207577464245885</v>
+        <v>0.01381180245055078</v>
       </c>
       <c r="T3">
-        <v>0.01207577464245886</v>
+        <v>0.01381180245055078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.714293</v>
+        <v>3.050673333333334</v>
       </c>
       <c r="H4">
-        <v>8.142879000000001</v>
+        <v>9.15202</v>
       </c>
       <c r="I4">
-        <v>0.02893885961486273</v>
+        <v>0.03589373762206555</v>
       </c>
       <c r="J4">
-        <v>0.02893885961486273</v>
+        <v>0.03589373762206555</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>150.618525</v>
+        <v>149.6042426666667</v>
       </c>
       <c r="N4">
-        <v>451.855575</v>
+        <v>448.812728</v>
       </c>
       <c r="O4">
-        <v>0.2971670584857679</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="P4">
-        <v>0.297167058485768</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="Q4">
-        <v>408.822808077825</v>
+        <v>456.3936736567289</v>
       </c>
       <c r="R4">
-        <v>3679.405272700425</v>
+        <v>4107.54306291056</v>
       </c>
       <c r="S4">
-        <v>0.00859967578768134</v>
+        <v>0.009769738885070593</v>
       </c>
       <c r="T4">
-        <v>0.008599675787681341</v>
+        <v>0.009769738885070595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.714293</v>
+        <v>3.050673333333334</v>
       </c>
       <c r="H5">
-        <v>8.142879000000001</v>
+        <v>9.15202</v>
       </c>
       <c r="I5">
-        <v>0.02893885961486273</v>
+        <v>0.03589373762206555</v>
       </c>
       <c r="J5">
-        <v>0.02893885961486273</v>
+        <v>0.03589373762206555</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.0904793333333</v>
+        <v>180.1047823333333</v>
       </c>
       <c r="N5">
-        <v>309.271438</v>
+        <v>540.314347</v>
       </c>
       <c r="O5">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="P5">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="Q5">
-        <v>279.8177664211113</v>
+        <v>549.4408566701045</v>
       </c>
       <c r="R5">
-        <v>2518.359897790002</v>
+        <v>4944.96771003094</v>
       </c>
       <c r="S5">
-        <v>0.005886026961579461</v>
+        <v>0.01176154274761884</v>
       </c>
       <c r="T5">
-        <v>0.005886026961579462</v>
+        <v>0.01176154274761884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>193.924827</v>
       </c>
       <c r="I6">
-        <v>0.6891866309679342</v>
+        <v>0.7605628985450701</v>
       </c>
       <c r="J6">
-        <v>0.6891866309679342</v>
+        <v>0.7605628985450702</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.63852366666667</v>
+        <v>8.432170666666666</v>
       </c>
       <c r="N6">
-        <v>124.915571</v>
+        <v>25.296512</v>
       </c>
       <c r="O6">
-        <v>0.08215189730289396</v>
+        <v>0.0153412147997323</v>
       </c>
       <c r="P6">
-        <v>0.08215189730289396</v>
+        <v>0.01534121479973231</v>
       </c>
       <c r="Q6">
-        <v>2691.581166197913</v>
+        <v>545.069079255936</v>
       </c>
       <c r="R6">
-        <v>24224.23049578122</v>
+        <v>4905.621713303424</v>
       </c>
       <c r="S6">
-        <v>0.05661798932980521</v>
+        <v>0.01166795879528693</v>
       </c>
       <c r="T6">
-        <v>0.05661798932980521</v>
+        <v>0.01166795879528693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>193.924827</v>
       </c>
       <c r="I7">
-        <v>0.6891866309679342</v>
+        <v>0.7605628985450701</v>
       </c>
       <c r="J7">
-        <v>0.6891866309679342</v>
+        <v>0.7605628985450702</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>211.5004576666666</v>
+        <v>211.5004576666667</v>
       </c>
       <c r="N7">
-        <v>634.5013729999999</v>
+        <v>634.5013730000001</v>
       </c>
       <c r="O7">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="P7">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="Q7">
         <v>13671.72988780972</v>
@@ -883,10 +883,10 @@
         <v>123045.5689902875</v>
       </c>
       <c r="S7">
-        <v>0.2875877817206691</v>
+        <v>0.2926623194421817</v>
       </c>
       <c r="T7">
-        <v>0.2875877817206691</v>
+        <v>0.2926623194421817</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>193.924827</v>
       </c>
       <c r="I8">
-        <v>0.6891866309679342</v>
+        <v>0.7605628985450701</v>
       </c>
       <c r="J8">
-        <v>0.6891866309679342</v>
+        <v>0.7605628985450702</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>150.618525</v>
+        <v>149.6042426666667</v>
       </c>
       <c r="N8">
-        <v>451.855575</v>
+        <v>448.812728</v>
       </c>
       <c r="O8">
-        <v>0.2971670584857679</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="P8">
-        <v>0.297167058485768</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="Q8">
-        <v>9736.223801206726</v>
+        <v>9670.658959199784</v>
       </c>
       <c r="R8">
-        <v>87626.01421086054</v>
+        <v>87035.93063279804</v>
       </c>
       <c r="S8">
-        <v>0.2048035638724575</v>
+        <v>0.2070138530206979</v>
       </c>
       <c r="T8">
-        <v>0.2048035638724575</v>
+        <v>0.2070138530206979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>193.924827</v>
       </c>
       <c r="I9">
-        <v>0.6891866309679342</v>
+        <v>0.7605628985450701</v>
       </c>
       <c r="J9">
-        <v>0.6891866309679342</v>
+        <v>0.7605628985450702</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.0904793333333</v>
+        <v>180.1047823333333</v>
       </c>
       <c r="N9">
-        <v>309.271438</v>
+        <v>540.314347</v>
       </c>
       <c r="O9">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="P9">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="Q9">
-        <v>6663.934456687914</v>
+        <v>11642.26291862144</v>
       </c>
       <c r="R9">
-        <v>59975.41011019122</v>
+        <v>104780.366267593</v>
       </c>
       <c r="S9">
-        <v>0.1401772960450023</v>
+        <v>0.2492187672869036</v>
       </c>
       <c r="T9">
-        <v>0.1401772960450023</v>
+        <v>0.2492187672869036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.08087733333333</v>
+        <v>16.398149</v>
       </c>
       <c r="H10">
-        <v>72.242632</v>
+        <v>49.194447</v>
       </c>
       <c r="I10">
-        <v>0.25674204242212</v>
+        <v>0.1929380151136699</v>
       </c>
       <c r="J10">
-        <v>0.25674204242212</v>
+        <v>0.19293801511367</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.63852366666667</v>
+        <v>8.432170666666666</v>
       </c>
       <c r="N10">
-        <v>124.915571</v>
+        <v>25.296512</v>
       </c>
       <c r="O10">
-        <v>0.08215189730289396</v>
+        <v>0.0153412147997323</v>
       </c>
       <c r="P10">
-        <v>0.08215189730289396</v>
+        <v>0.01534121479973231</v>
       </c>
       <c r="Q10">
-        <v>1002.692180758097</v>
+        <v>138.2719909854293</v>
       </c>
       <c r="R10">
-        <v>9024.229626822873</v>
+        <v>1244.447918868864</v>
       </c>
       <c r="S10">
-        <v>0.02109184590239724</v>
+        <v>0.002959903532892808</v>
       </c>
       <c r="T10">
-        <v>0.02109184590239724</v>
+        <v>0.002959903532892809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.08087733333333</v>
+        <v>16.398149</v>
       </c>
       <c r="H11">
-        <v>72.242632</v>
+        <v>49.194447</v>
       </c>
       <c r="I11">
-        <v>0.25674204242212</v>
+        <v>0.1929380151136699</v>
       </c>
       <c r="J11">
-        <v>0.25674204242212</v>
+        <v>0.19293801511367</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>211.5004576666666</v>
+        <v>211.5004576666667</v>
       </c>
       <c r="N11">
-        <v>634.5013729999999</v>
+        <v>634.5013730000001</v>
       </c>
       <c r="O11">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="P11">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="Q11">
-        <v>5093.116577014859</v>
+        <v>3468.216018386192</v>
       </c>
       <c r="R11">
-        <v>45838.04919313373</v>
+        <v>31213.94416547573</v>
       </c>
       <c r="S11">
-        <v>0.107134803748169</v>
+        <v>0.07424196883617938</v>
       </c>
       <c r="T11">
-        <v>0.107134803748169</v>
+        <v>0.07424196883617938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.08087733333333</v>
+        <v>16.398149</v>
       </c>
       <c r="H12">
-        <v>72.242632</v>
+        <v>49.194447</v>
       </c>
       <c r="I12">
-        <v>0.25674204242212</v>
+        <v>0.1929380151136699</v>
       </c>
       <c r="J12">
-        <v>0.25674204242212</v>
+        <v>0.19293801511367</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>150.618525</v>
+        <v>149.6042426666667</v>
       </c>
       <c r="N12">
-        <v>451.855575</v>
+        <v>448.812728</v>
       </c>
       <c r="O12">
-        <v>0.2971670584857679</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="P12">
-        <v>0.297167058485768</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="Q12">
-        <v>3627.0262246526</v>
+        <v>2453.232662280157</v>
       </c>
       <c r="R12">
-        <v>32643.2360218734</v>
+        <v>22079.09396052142</v>
       </c>
       <c r="S12">
-        <v>0.07629527753620963</v>
+        <v>0.05251484391264926</v>
       </c>
       <c r="T12">
-        <v>0.07629527753620964</v>
+        <v>0.05251484391264927</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.08087733333333</v>
+        <v>16.398149</v>
       </c>
       <c r="H13">
-        <v>72.242632</v>
+        <v>49.194447</v>
       </c>
       <c r="I13">
-        <v>0.25674204242212</v>
+        <v>0.1929380151136699</v>
       </c>
       <c r="J13">
-        <v>0.25674204242212</v>
+        <v>0.19293801511367</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.0904793333333</v>
+        <v>180.1047823333333</v>
       </c>
       <c r="N13">
-        <v>309.271438</v>
+        <v>540.314347</v>
       </c>
       <c r="O13">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="P13">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="Q13">
-        <v>2482.509187060535</v>
+        <v>2953.385056314567</v>
       </c>
       <c r="R13">
-        <v>22342.58268354482</v>
+        <v>26580.46550683111</v>
       </c>
       <c r="S13">
-        <v>0.05222011523534405</v>
+        <v>0.06322129883194848</v>
       </c>
       <c r="T13">
-        <v>0.05222011523534405</v>
+        <v>0.06322129883194849</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.357276</v>
+        <v>0.9013676666666667</v>
       </c>
       <c r="H14">
-        <v>7.071828</v>
+        <v>2.704103</v>
       </c>
       <c r="I14">
-        <v>0.02513246699508312</v>
+        <v>0.01060534871919427</v>
       </c>
       <c r="J14">
-        <v>0.02513246699508312</v>
+        <v>0.01060534871919427</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>41.63852366666667</v>
+        <v>8.432170666666666</v>
       </c>
       <c r="N14">
-        <v>124.915571</v>
+        <v>25.296512</v>
       </c>
       <c r="O14">
-        <v>0.08215189730289396</v>
+        <v>0.0153412147997323</v>
       </c>
       <c r="P14">
-        <v>0.08215189730289396</v>
+        <v>0.01534121479973231</v>
       </c>
       <c r="Q14">
-        <v>98.15349251486535</v>
+        <v>7.600485998748444</v>
       </c>
       <c r="R14">
-        <v>883.3814326337881</v>
+        <v>68.404373988736</v>
       </c>
       <c r="S14">
-        <v>0.002064679847548441</v>
+        <v>0.0001626989327272251</v>
       </c>
       <c r="T14">
-        <v>0.002064679847548441</v>
+        <v>0.0001626989327272252</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.357276</v>
+        <v>0.9013676666666667</v>
       </c>
       <c r="H15">
-        <v>7.071828</v>
+        <v>2.704103</v>
       </c>
       <c r="I15">
-        <v>0.02513246699508312</v>
+        <v>0.01060534871919427</v>
       </c>
       <c r="J15">
-        <v>0.02513246699508312</v>
+        <v>0.01060534871919427</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>211.5004576666666</v>
+        <v>211.5004576666667</v>
       </c>
       <c r="N15">
-        <v>634.5013729999999</v>
+        <v>634.5013730000001</v>
       </c>
       <c r="O15">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="P15">
-        <v>0.4172857812357212</v>
+        <v>0.3847969970689267</v>
       </c>
       <c r="Q15">
-        <v>498.5649528466493</v>
+        <v>190.6396740259354</v>
       </c>
       <c r="R15">
-        <v>4487.084575619843</v>
+        <v>1715.757066233419</v>
       </c>
       <c r="S15">
-        <v>0.01048742112442424</v>
+        <v>0.004080906340014741</v>
       </c>
       <c r="T15">
-        <v>0.01048742112442424</v>
+        <v>0.004080906340014743</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.357276</v>
+        <v>0.9013676666666667</v>
       </c>
       <c r="H16">
-        <v>7.071828</v>
+        <v>2.704103</v>
       </c>
       <c r="I16">
-        <v>0.02513246699508312</v>
+        <v>0.01060534871919427</v>
       </c>
       <c r="J16">
-        <v>0.02513246699508312</v>
+        <v>0.01060534871919427</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>150.618525</v>
+        <v>149.6042426666667</v>
       </c>
       <c r="N16">
-        <v>451.855575</v>
+        <v>448.812728</v>
       </c>
       <c r="O16">
-        <v>0.2971670584857679</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="P16">
-        <v>0.297167058485768</v>
+        <v>0.2721850532240109</v>
       </c>
       <c r="Q16">
-        <v>355.0494341379001</v>
+        <v>134.8484271358871</v>
       </c>
       <c r="R16">
-        <v>3195.4449072411</v>
+        <v>1213.635844222984</v>
       </c>
       <c r="S16">
-        <v>0.007468541289419498</v>
+        <v>0.002886617405593087</v>
       </c>
       <c r="T16">
-        <v>0.007468541289419499</v>
+        <v>0.002886617405593088</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.357276</v>
+        <v>0.9013676666666667</v>
       </c>
       <c r="H17">
-        <v>7.071828</v>
+        <v>2.704103</v>
       </c>
       <c r="I17">
-        <v>0.02513246699508312</v>
+        <v>0.01060534871919427</v>
       </c>
       <c r="J17">
-        <v>0.02513246699508312</v>
+        <v>0.01060534871919427</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.0904793333333</v>
+        <v>180.1047823333333</v>
       </c>
       <c r="N17">
-        <v>309.271438</v>
+        <v>540.314347</v>
       </c>
       <c r="O17">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="P17">
-        <v>0.2033952629756168</v>
+        <v>0.3276767349073302</v>
       </c>
       <c r="Q17">
-        <v>243.0127127609627</v>
+        <v>162.3406274073046</v>
       </c>
       <c r="R17">
-        <v>2187.114414848664</v>
+        <v>1461.065646665741</v>
       </c>
       <c r="S17">
-        <v>0.005111824733690941</v>
+        <v>0.003475126040859213</v>
       </c>
       <c r="T17">
-        <v>0.005111824733690941</v>
+        <v>0.003475126040859214</v>
       </c>
     </row>
   </sheetData>
